--- a/HumanResources.Web/wwwroot/uploads/one_emp_testing - Copy.xlsx
+++ b/HumanResources.Web/wwwroot/uploads/one_emp_testing - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B24BCA-4F77-4CD9-97FC-D14A924455BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9052352C-640E-44D4-ADD0-F3F44676C9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3564D398-ED51-4AB5-8D60-2BFE198D19C1}"/>
   </bookViews>
@@ -414,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD2B10F-2E9D-4361-9936-81965FDDBAF0}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -545,6 +545,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45636.362546296295</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45636.840486111112</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45637.362546296295</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45637.840486111112</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45638.362546296295</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45638.923819444448</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
